--- a/homework/53.xlsx
+++ b/homework/53.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E954D5D4-5199-4FD3-80E8-E0B46D578EE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D91DF55-315D-46D4-A939-B09530A1BFD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13470" yWindow="4695" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1575" windowWidth="15945" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>to see</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to swim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to ask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visiting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>going</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crying or to cry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to work,talking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +478,7 @@
   <dimension ref="A3:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,84 +509,108 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>

--- a/homework/53.xlsx
+++ b/homework/53.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D91DF55-315D-46D4-A939-B09530A1BFD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52BC93-8680-47D5-92C4-CF3336391122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1575" windowWidth="15945" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="2910" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>to see</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,159 @@
   </si>
   <si>
     <t>to work,talking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to lose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to watch or watching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>going to museums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to go </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to New York</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(there)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to write letters or writing </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>letters</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">walking </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>home</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to work very hard  (I don't like driving)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeping (I enjoy cooking)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to stay on home (if it's a nice day tomorrow, I would like to have a picnic by the lake)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to stay on home (when I'm on holiday, I like to do very little)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to go far (I wouldn't like to live in a big city)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traveling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(travelling) (by train)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating sweets,I would love to eat meat (I don't mind travelling alone,but I prefer to travel with somebody)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +256,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -137,6 +304,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,7 +661,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>51.1</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -618,54 +786,92 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="6">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="6">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="6">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="6">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
@@ -673,40 +879,66 @@
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="6">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="6">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="6">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
@@ -714,39 +946,65 @@
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="6">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="6">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="6">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="6">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="6">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
